--- a/rules.xlsx
+++ b/rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmedrano/python-scripts/erc-sha256/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmedrano/Documents/GitHub/test-erc-stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285FDE5F-6262-1D40-81FF-BBCEED4C54A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD7D995-11A7-A344-A396-226745B4FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6A9BF6ED-DEA0-C844-A1BF-D13CD1782A27}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>source</t>
   </si>
@@ -43,40 +43,16 @@
     <t>destination</t>
   </si>
   <si>
-    <t>/en-id/games/mlb-the-show-20-ps4/</t>
-  </si>
-  <si>
-    <t>/en-id/games/mlb-the-show-20/</t>
-  </si>
-  <si>
-    <t>/en-sg/games/mlb-the-show-20-ps4</t>
-  </si>
-  <si>
-    <t>/en-sg/games/mlb-the-show-20/</t>
-  </si>
-  <si>
-    <t>/en-ti/games/mlb-the-show-20-ps4</t>
-  </si>
-  <si>
-    <t>/en-ti/games/mlb-the-show-20/</t>
-  </si>
-  <si>
-    <t>/th-th/explore/playstation-plus/this-month-on-ps-plus/</t>
-  </si>
-  <si>
-    <t>/th-th/ps-plus/this-month-on-ps-plus/</t>
-  </si>
-  <si>
-    <t>/en-us/legal/op-eula-us/</t>
-  </si>
-  <si>
-    <t>/en-us/legal/op-eula/</t>
-  </si>
-  <si>
-    <t>/en-us/support/warranties/ps/</t>
-  </si>
-  <si>
-    <t>/en-us/legal/</t>
+    <t>/en-us/games/batman-arkham-knight-ps4/</t>
+  </si>
+  <si>
+    <t>/es-us/games/batman-the-enemy-within-ps4/</t>
+  </si>
+  <si>
+    <t>/en-us/games/batman-arkham-knight/</t>
+  </si>
+  <si>
+    <t>/es-us/games/batman-the-enemy-within/</t>
   </si>
 </sst>
 </file>
@@ -428,13 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AB46B-216B-8C48-8E6C-BB628E57E1F4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -449,47 +429,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/rules.xlsx
+++ b/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmedrano/Documents/GitHub/test-erc-stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD7D995-11A7-A344-A396-226745B4FC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE90FB91-7478-8C4D-91E3-DA1000DB7C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{6A9BF6ED-DEA0-C844-A1BF-D13CD1782A27}"/>
+    <workbookView xWindow="13860" yWindow="1340" windowWidth="28040" windowHeight="17440" xr2:uid="{6A9BF6ED-DEA0-C844-A1BF-D13CD1782A27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>source</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>/es-us/games/batman-the-enemy-within/</t>
+  </si>
+  <si>
+    <t>/es-ar/local/days-of-play/</t>
+  </si>
+  <si>
+    <t>/es-ar/deals/days-of-play/</t>
+  </si>
+  <si>
+    <t>/ja-jp/cancel-subscription/</t>
+  </si>
+  <si>
+    <t>/ja-jp/support/store/cancel-ps-store-subscription/</t>
+  </si>
+  <si>
+    <t>/ar-ae/legal/copyright-and-trademark-notice/</t>
+  </si>
+  <si>
+    <t>/en-ae/legal/copyright-and-trademark-notice/</t>
+  </si>
+  <si>
+    <t>/ja-jp/games/minecraft-ps4/</t>
+  </si>
+  <si>
+    <t>/ja-jp/games/minecraft/</t>
+  </si>
+  <si>
+    <t>/es-cr/explore/this-month-on-playstation/play-out-your-action-hero-fantasies-in-blood-and-truth/</t>
+  </si>
+  <si>
+    <t>/es-cr/games/blood-and-truth/</t>
   </si>
 </sst>
 </file>
@@ -88,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4AB46B-216B-8C48-8E6C-BB628E57E1F4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,19 +456,59 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
